--- a/data/trans_dic/P22_R4-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P22_R4-Estudios-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.02025215604185454</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.02584050592283811</v>
+        <v>0.02584050592283812</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.05087227886432328</v>
@@ -697,7 +697,7 @@
         <v>0.02035607284762765</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.02442123887660263</v>
+        <v>0.02442123887660262</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04018464752120613</v>
+        <v>0.03826656406835637</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01463586857875946</v>
+        <v>0.01439058323735792</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0114033956475383</v>
+        <v>0.01182135080508821</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01339434261874543</v>
+        <v>0.01344178768009612</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03877269131645047</v>
+        <v>0.0380057791225954</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02351494381584538</v>
+        <v>0.02392811395686175</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01184307095961026</v>
+        <v>0.01204593722124339</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01853100728339056</v>
+        <v>0.01787464590578814</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04180379089157051</v>
+        <v>0.04204672348252695</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02159854268362063</v>
+        <v>0.02201197824280852</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01443679794665978</v>
+        <v>0.01449520027369198</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01828357931796858</v>
+        <v>0.01813031972929482</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06843439694104844</v>
+        <v>0.06791470441698672</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03454134077468159</v>
+        <v>0.03339510308213408</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03177331494532137</v>
+        <v>0.03276540827474594</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03597710658603116</v>
+        <v>0.03699923900389254</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06296860828374951</v>
+        <v>0.06316134361165981</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.0446070364428103</v>
+        <v>0.04426940925467159</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.03206236658299354</v>
+        <v>0.0313901833591516</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.03626530322078494</v>
+        <v>0.03539824327135303</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0595118932341054</v>
+        <v>0.06015012950049083</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.0362747817723123</v>
+        <v>0.03684863756549952</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.02899666626812549</v>
+        <v>0.02932961980398709</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.03267994210710725</v>
+        <v>0.03234721227349331</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.05887839961203818</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.1045103267692614</v>
+        <v>0.1045103267692615</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.07490670084725419</v>
+        <v>0.07659873437465714</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.07911865174934257</v>
+        <v>0.07778741394818042</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0525723572073674</v>
+        <v>0.05122660350855449</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.09409982609541198</v>
+        <v>0.09420266575289429</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.07725450752157248</v>
+        <v>0.07685301715044406</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06308876378377408</v>
+        <v>0.06267960457339268</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04575933716905509</v>
+        <v>0.04637491308936222</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.08881485887146338</v>
+        <v>0.08967165751397983</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.08147659043533792</v>
+        <v>0.08032363439074493</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.0754277670184955</v>
+        <v>0.07500692401612129</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.05165706142982739</v>
+        <v>0.05162875767514107</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.09507292529440331</v>
+        <v>0.09541674667921882</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1044098241387884</v>
+        <v>0.1039665290540364</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1057636108110106</v>
+        <v>0.1058041297028047</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07435111253749231</v>
+        <v>0.07300319641158509</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1260711524521669</v>
+        <v>0.1247551116154574</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.107359724245522</v>
+        <v>0.1068814568320026</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.09127358774056306</v>
+        <v>0.08894949941141062</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.06683392568491991</v>
+        <v>0.06799209054166933</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1116906803083438</v>
+        <v>0.1132191448547672</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1009580376252113</v>
+        <v>0.1001946083574249</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.09512474042983492</v>
+        <v>0.09381705383184247</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.06764662489702944</v>
+        <v>0.06610618881742854</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1139723875325967</v>
+        <v>0.1150700487215503</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2221351809094592</v>
+        <v>0.2262062047019498</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.198233083120817</v>
+        <v>0.1975095388665091</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2075479800708456</v>
+        <v>0.2072571743651861</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2723991687040047</v>
+        <v>0.2683532605353116</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1986423814722702</v>
+        <v>0.1982901648528892</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1675149052994732</v>
+        <v>0.1683779496911622</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.220254763114778</v>
+        <v>0.2217520262530314</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3109646826561104</v>
+        <v>0.3108196513590833</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2198291227788552</v>
+        <v>0.2206118420083123</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1964797552518413</v>
+        <v>0.1947036928749879</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2259309708057246</v>
+        <v>0.2256395810075244</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3030331889794167</v>
+        <v>0.3043686761835734</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2964373929368958</v>
+        <v>0.2982541066036667</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.285790732001257</v>
+        <v>0.2859365169682107</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2862752140368193</v>
+        <v>0.2832392856321865</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3458005425909979</v>
+        <v>0.3483685804732352</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2730323825598374</v>
+        <v>0.2800474579808161</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.248446600815605</v>
+        <v>0.2468960549310313</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2957485030358522</v>
+        <v>0.2993720569695069</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.376828816294892</v>
+        <v>0.3746451178874161</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2719043934838498</v>
+        <v>0.2725418295464929</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2544716829910128</v>
+        <v>0.2540002418097011</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2792219246516173</v>
+        <v>0.277666714225426</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3507948891397094</v>
+        <v>0.3523534309403152</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.09538478964699144</v>
+        <v>0.09568501124098282</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08167001204874919</v>
+        <v>0.08184250443815408</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.07263148986064306</v>
+        <v>0.07310748931615171</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1215638820867144</v>
+        <v>0.1224079798463463</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.08557577190640722</v>
+        <v>0.08504588865661868</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06807744145610285</v>
+        <v>0.06770917840368267</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.06868751589918282</v>
+        <v>0.06768584102855484</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1225730825099073</v>
+        <v>0.12211186422153</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.09352962841037678</v>
+        <v>0.09292737848460646</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.07730319579675171</v>
+        <v>0.07747951530810027</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.07305106667711721</v>
+        <v>0.07202729771454917</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1255429617884606</v>
+        <v>0.1259377824120245</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.117065587876887</v>
+        <v>0.1166013175410323</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1026474632629303</v>
+        <v>0.1033379676232681</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0922451116951738</v>
+        <v>0.09266383682202682</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1472133478256444</v>
+        <v>0.1492342526047639</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1061921371903994</v>
+        <v>0.1053461632205379</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.08659570099405754</v>
+        <v>0.08618387326366612</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.08659378150908946</v>
+        <v>0.0868842944560861</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1423086337235452</v>
+        <v>0.1424838040893928</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1084985890791435</v>
+        <v>0.1083799332767277</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.09134837803294489</v>
+        <v>0.09190340776671697</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.08671106001412421</v>
+        <v>0.08614935658115522</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.142392611601394</v>
+        <v>0.1420898777840274</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>41345</v>
+        <v>39372</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>14265</v>
+        <v>14026</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>8589</v>
+        <v>8904</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>7749</v>
+        <v>7776</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>50958</v>
+        <v>49950</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>31458</v>
+        <v>32011</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>11733</v>
+        <v>11934</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>15220</v>
+        <v>14681</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>97952</v>
+        <v>98522</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>49945</v>
+        <v>50901</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>25176</v>
+        <v>25278</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>25594</v>
+        <v>25380</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>70411</v>
+        <v>69876</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>33665</v>
+        <v>32548</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>23931</v>
+        <v>24678</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>20814</v>
+        <v>21405</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>82757</v>
+        <v>83011</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>59675</v>
+        <v>59223</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>31765</v>
+        <v>31099</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>29785</v>
+        <v>29073</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>139445</v>
+        <v>140940</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>83883</v>
+        <v>85210</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>50567</v>
+        <v>51148</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>45747</v>
+        <v>45281</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>126581</v>
+        <v>129440</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>155308</v>
+        <v>152695</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>109014</v>
+        <v>106224</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>209896</v>
+        <v>210125</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>122564</v>
+        <v>121927</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>110898</v>
+        <v>110178</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>90898</v>
+        <v>92121</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>192757</v>
+        <v>194617</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>266945</v>
+        <v>263168</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>280650</v>
+        <v>279084</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>209730</v>
+        <v>209615</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>418406</v>
+        <v>419919</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>176437</v>
+        <v>175688</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>207611</v>
+        <v>207691</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>154175</v>
+        <v>151380</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>281210</v>
+        <v>278275</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>170325</v>
+        <v>169567</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>160441</v>
+        <v>156356</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>132762</v>
+        <v>135062</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>242405</v>
+        <v>245722</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>330773</v>
+        <v>328272</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>353938</v>
+        <v>349073</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>274648</v>
+        <v>268394</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>501580</v>
+        <v>506411</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>122487</v>
+        <v>124732</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>95386</v>
+        <v>95038</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>113305</v>
+        <v>113146</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>193836</v>
+        <v>190957</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>94636</v>
+        <v>94468</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>76828</v>
+        <v>77223</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>120951</v>
+        <v>121773</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>228521</v>
+        <v>228414</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>225945</v>
+        <v>226749</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>184654</v>
+        <v>182985</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>247409</v>
+        <v>247090</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>438327</v>
+        <v>440258</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>163458</v>
+        <v>164460</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>137517</v>
+        <v>137587</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>156284</v>
+        <v>154627</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>246067</v>
+        <v>247895</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>130076</v>
+        <v>133418</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>113945</v>
+        <v>113234</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>162407</v>
+        <v>164397</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>276923</v>
+        <v>275318</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>279469</v>
+        <v>280124</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>239156</v>
+        <v>238713</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>305766</v>
+        <v>304063</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>507412</v>
+        <v>509667</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>311921</v>
+        <v>312903</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>279213</v>
+        <v>279803</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>244965</v>
+        <v>246570</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>427988</v>
+        <v>430960</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>289004</v>
+        <v>287214</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>241963</v>
+        <v>240654</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>242213</v>
+        <v>238680</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>456771</v>
+        <v>455052</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>621720</v>
+        <v>617717</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>539038</v>
+        <v>540267</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>503979</v>
+        <v>496916</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>909835</v>
+        <v>912696</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>382820</v>
+        <v>381302</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>350931</v>
+        <v>353292</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>311116</v>
+        <v>312528</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>518292</v>
+        <v>525406</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>358629</v>
+        <v>355772</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>307781</v>
+        <v>306317</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>305355</v>
+        <v>306380</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>530316</v>
+        <v>530969</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>721223</v>
+        <v>720434</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>636975</v>
+        <v>640845</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>598220</v>
+        <v>594344</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1031948</v>
+        <v>1029754</v>
       </c>
     </row>
     <row r="20">
